--- a/It201819/DEtailed Calculation/sandip kumar adhikary.xlsx
+++ b/It201819/DEtailed Calculation/sandip kumar adhikary.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,6 +1610,9 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>